--- a/document/screenDesignDocument.xlsx
+++ b/document/screenDesignDocument.xlsx
@@ -2,21 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osumi/kyopuroRecordApp/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{226D86F6-FEDD-1F4F-8BBD-2DA5F8437FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09880001-71F5-504D-AA4E-F562D79C7D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" xr2:uid="{79A594DB-89F1-7841-9244-7F6B74B2A7C0}"/>
+    <workbookView xWindow="-4960" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{79A594DB-89F1-7841-9244-7F6B74B2A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="4" r:id="rId1"/>
     <sheet name="画面設計ルール" sheetId="2" r:id="rId2"/>
     <sheet name="画面遷移図" sheetId="3" r:id="rId3"/>
-    <sheet name="アルゴリズム別記録画面" sheetId="1" r:id="rId4"/>
+    <sheet name="ホーム画面" sheetId="10" r:id="rId4"/>
+    <sheet name="ログイン画面" sheetId="5" r:id="rId5"/>
+    <sheet name="新規登録画面" sheetId="8" r:id="rId6"/>
+    <sheet name="アルゴリズム別記録画面" sheetId="1" r:id="rId7"/>
+    <sheet name="共通ヘッダー" sheetId="6" r:id="rId8"/>
+    <sheet name="共通フッター" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="3">
@@ -130,6 +135,285 @@
   </si>
   <si>
     <t>システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証成功時</t>
+    <rPh sb="0" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルゴリズム別記録画面</t>
+    <rPh sb="6" eb="9">
+      <t>ベテゥ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録成功時</t>
+    <rPh sb="0" eb="7">
+      <t>シンキトウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボタン押下時</t>
+    <rPh sb="7" eb="8">
+      <t>オシセィ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>j</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名テキスト</t>
+    <rPh sb="0" eb="1">
+      <t>ユーザーメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名とパスワードを使ってログインする</t>
+    <rPh sb="12" eb="13">
+      <t>ツカッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理説明</t>
+    <rPh sb="0" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力文字数が20文字以内かバリデーションチェックを行う
+バリデーションにかかったら
+「ユーザー名は20文字以内で設定してください」とエラー表示する</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モジイナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力文字数が30文字以内かバリデーションチェックを行う
+バリデーションにかかったら
+「パスワードは30文字以内で設定してください」とエラー表示する</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モジイナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したユーザー名とパスワードに該当しなかったら
+「ユーザー名かパスワードが間違っています」とエラー表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガイトウセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力文字数20文字以内</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力文字数30文字以内</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録ボタン</t>
+    <rPh sb="0" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真</t>
+    <rPh sb="0" eb="2">
+      <t>シャシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面に遷移する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面に遷移する</t>
+    <rPh sb="0" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kyoupuroRecordAppのホーム画面、最初に見えるページ</t>
+    <rPh sb="24" eb="26">
+      <t>サイセィオ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミエル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録ボタン押下時</t>
+    <rPh sb="0" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オセィ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>j</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -175,7 +459,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -235,13 +519,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,6 +608,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -290,6 +650,1815 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="下矢印 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF436176-B99F-68BC-53B4-FC06125B0E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="736600"/>
+          <a:ext cx="774700" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="18600000"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7529D6E7-1C87-12F8-A822-A4B55E7299FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2959100" y="228600"/>
+          <a:ext cx="1536700" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="下矢印 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37258E6C-BF2B-98F4-C429-EC42D229E0ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1346200" y="863600"/>
+          <a:ext cx="622300" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="下矢印 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA42EB05-9C13-C447-BF6F-DD2680483117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="2120900"/>
+          <a:ext cx="698500" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAEE285C-B898-BF47-926D-8730AA15597B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1549400"/>
+          <a:ext cx="9080500" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>kyoupuroRecordApp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDACB9AE-7E67-4844-BCAB-356F47B52556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6883400"/>
+          <a:ext cx="9080500" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共通フッター</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3517900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4508500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9532B62-4BCC-3D49-BF73-11716F6C3BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7861300" y="1790700"/>
+          <a:ext cx="990600" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A4629C-423C-D940-A84B-ED71A095A85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="1638300"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34185281-F67F-6E43-B724-D4F5A329EDB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="1752600"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2489200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3644900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="角丸四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498C8CFC-7D17-884B-81F9-853A1F252131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6832600" y="1803400"/>
+          <a:ext cx="1155700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2946400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E2288E-117E-6673-A523-973B4C7F16AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1473200" y="2832100"/>
+          <a:ext cx="5816600" cy="3454400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4318000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4660900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9358A05-8840-1C4D-8058-BE00F5E67596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8661400" y="1663700"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327E7687-1E14-E944-9639-32B60EA69D70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2870200" y="2501900"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F1693F-3ECA-6E4A-3D72-5BC7D98582F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1562100"/>
+          <a:ext cx="9525000" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共通ヘッダー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B180080A-CC67-7345-9B9A-799C09BF4E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6883400"/>
+          <a:ext cx="9525000" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共通フッター</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2070100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002E3745-A3AE-E271-8926-DF4AAC12798A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="3657600"/>
+          <a:ext cx="2108200" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177D684A-74C2-5347-9097-7D207483FB43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="4457700"/>
+          <a:ext cx="2070100" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB437F0-1BB8-78CF-8F64-907769F27577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654300" y="3683000"/>
+          <a:ext cx="1219200" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザー名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D2377A-3F49-744C-89BB-221ABB3B9CE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2679700" y="4432300"/>
+          <a:ext cx="1206500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7733E45-B427-863A-6DB1-6578D590F946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3632200" y="5207000"/>
+          <a:ext cx="863600" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A635CA-9202-2907-3A75-80814B480663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="3352800"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A113202-8907-9243-A924-B4BD602E0FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="4114800"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1193800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1536700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA9FED2-393C-AF49-BE7F-D582FE3C236A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="4864100"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="角丸四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9396914D-7E09-BD46-BFAA-B7B388EB4C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="3314700"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BAE0D7-3BA2-ED43-A609-C2805E5F72E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="4114800"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,7 +2746,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -591,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD139898-D56E-AE4F-8048-1EF993F828F9}">
   <dimension ref="B7:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -634,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <v>44991</v>
+        <v>45109</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -642,7 +2843,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>45026</v>
+        <v>45111</v>
       </c>
     </row>
   </sheetData>
@@ -712,11 +2913,769 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337E3A6E-5A1F-DC48-B731-4E248799E8EB}">
+  <dimension ref="B2:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="B7:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D1C9D-74CB-1540-A200-08D979518438}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="89" customHeight="1">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="89" customHeight="1">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="A10:D30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1320CDBD-4C48-9E4B-97CB-C71AE4F94A2C}">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="78" customHeight="1">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="78" customHeight="1">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="78" customHeight="1">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="A10:D30"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAC0DF3-FA9D-7547-9932-840D0E39EFA8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData/>
@@ -725,12 +3684,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E562364-B549-9B4A-B243-6F638596BE78}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -786,4 +3745,30 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19008C-5606-7B40-98FC-DD44CBC54661}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BD4116-EB71-9C43-8831-AD04127B0588}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/screenDesignDocument.xlsx
+++ b/document/screenDesignDocument.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osumi/kyopuroRecordApp/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09880001-71F5-504D-AA4E-F562D79C7D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5BD999-56C1-F24E-9D41-42B8AD435D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4960" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{79A594DB-89F1-7841-9244-7F6B74B2A7C0}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" firstSheet="1" activeTab="1" xr2:uid="{79A594DB-89F1-7841-9244-7F6B74B2A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="4" r:id="rId1"/>
-    <sheet name="画面設計ルール" sheetId="2" r:id="rId2"/>
-    <sheet name="画面遷移図" sheetId="3" r:id="rId3"/>
-    <sheet name="ホーム画面" sheetId="10" r:id="rId4"/>
-    <sheet name="ログイン画面" sheetId="5" r:id="rId5"/>
-    <sheet name="新規登録画面" sheetId="8" r:id="rId6"/>
-    <sheet name="アルゴリズム別記録画面" sheetId="1" r:id="rId7"/>
-    <sheet name="共通ヘッダー" sheetId="6" r:id="rId8"/>
-    <sheet name="共通フッター" sheetId="7" r:id="rId9"/>
+    <sheet name="画面遷移図" sheetId="3" r:id="rId2"/>
+    <sheet name="ホーム画面" sheetId="10" r:id="rId3"/>
+    <sheet name="共通ヘッダー" sheetId="11" r:id="rId4"/>
+    <sheet name="共通フッター" sheetId="12" r:id="rId5"/>
+    <sheet name="ログイン画面" sheetId="5" r:id="rId6"/>
+    <sheet name="アカウント新規登録画面" sheetId="13" r:id="rId7"/>
+    <sheet name="精進記録一覧画面" sheetId="1" r:id="rId8"/>
+    <sheet name="精進記録新規登録画面" sheetId="14" r:id="rId9"/>
+    <sheet name="精進記録更新画面" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="87">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="3">
@@ -109,31 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●画面項目一覧記載ルール</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>列名</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>データ</t>
-  </si>
-  <si>
-    <t>テーブル名＋カラム名</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>固定値：固定値文言
-可変値：表示条件、計算式</t>
-  </si>
-  <si>
     <t>システム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -156,16 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アルゴリズム別記録画面</t>
-    <rPh sb="6" eb="9">
-      <t>ベテゥ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ベテゥ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録成功時</t>
     <rPh sb="0" eb="7">
       <t>シンキトウロ</t>
@@ -187,13 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規登録画面</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -244,17 +203,6 @@
     <rPh sb="12" eb="13">
       <t>ツカッテ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制限</t>
-    <rPh sb="0" eb="2">
-      <t>セイゲn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -311,43 +259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力したユーザー名とパスワードに該当しなかったら
-「ユーザー名かパスワードが間違っています」とエラー表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガイトウセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力文字数20文字以内</t>
-    <rPh sb="0" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力文字数30文字以内</t>
-    <rPh sb="0" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ホーム画面</t>
     <rPh sb="3" eb="5">
       <t>ベテゥ</t>
@@ -413,6 +324,413 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>j</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通ヘッダー</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kyoupuroRecordAppの共通ヘッダー</t>
+    <rPh sb="18" eb="20">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名ボタン</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトプルダウンが出てきて、ログアウトを押すとログアウトしてホーム画面に遷移する</t>
+    <rPh sb="22" eb="23">
+      <t>オス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ名を表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしたユーザ名を表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインするためのボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したユーザー名とパスワードに該当しなかったら
+「ユーザー名かパスワードが間違っています」とエラー表示する
+正しい場合はログインしてアルゴリズム別記録画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガイトウセィ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>タダセィ</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>アルゴリズムベツキロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名を入力する欄
+入力文字数20文字以内</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ラン </t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードを入力する欄
+入力文字数30文字以内</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目説明</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリの全体を見せる写真</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミセル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録に遷移するボタン</t>
+    <rPh sb="0" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面に遷移するボタン</t>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ名を表示するラベル</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応する項目を表示するラベル</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通フッター</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kyoupuroRecordAppの共通フッター</t>
+    <rPh sb="18" eb="20">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク集と表示するラベル</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営者のリンク集ラベル</t>
+    <rPh sb="0" eb="3">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AtCoderアカウントリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubアカウントリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営者の画像</t>
+    <rPh sb="0" eb="1">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営者のAtCoderアカウントページに遷移するリンク</t>
+    <rPh sb="0" eb="3">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営者のブログページに遷移するリンク</t>
+    <rPh sb="0" eb="3">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営者のGitHubアカウントページに遷移するリンク</t>
+    <rPh sb="0" eb="3">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクを踏んだら運営者のAtCoderアカウントページに遷移する</t>
+    <rPh sb="8" eb="11">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクを踏んだら運営者のGitHubアカウントページに遷移する</t>
+    <rPh sb="8" eb="11">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクを踏んだら運営者のブログページに遷移する</t>
+    <rPh sb="8" eb="11">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録するためのボタン</t>
+    <rPh sb="0" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したユーザー名とパスワードで新規登録をする
+正常に登録できた場合、ログイン画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイジョウン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アルゴリズムベツキロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名とパスワードを入力してアカウントを新規登録する</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント新規登録画面</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精進記録編集画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンキト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集ボタン押下時</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウボ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>j</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集成功時</t>
+    <rPh sb="0" eb="1">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント新規登録画面</t>
+    <rPh sb="5" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録成功時</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精進記録新規登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シn</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>シンキト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面押下時</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シンキテ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オス</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">シタジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精進記録一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ベテゥ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ベテゥ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -574,7 +892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,11 +908,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -605,22 +926,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -629,11 +944,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,15 +972,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>654653</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>355825</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>46974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -679,9 +994,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3327400" y="736600"/>
-          <a:ext cx="774700" cy="1549400"/>
+        <a:xfrm rot="827969">
+          <a:off x="3512153" y="766554"/>
+          <a:ext cx="653672" cy="1566420"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -783,15 +1098,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>469900</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -806,8 +1121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1346200" y="863600"/>
-          <a:ext cx="622300" cy="622300"/>
+          <a:off x="1422400" y="787400"/>
+          <a:ext cx="393700" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -843,13 +1158,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>469900</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
@@ -866,8 +1181,138 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1257300" y="2120900"/>
-          <a:ext cx="698500" cy="622300"/>
+          <a:off x="1422400" y="2044700"/>
+          <a:ext cx="393700" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33673"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279328</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>143018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>921256</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="左カーブ矢印 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76D6667-6D1A-E9BD-D5E3-B7C974CF99DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="279328" y="397018"/>
+          <a:ext cx="641928" cy="2612881"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="下矢印 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C3D393-BDFF-2447-BE49-A3535A60CDB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1435100" y="3302000"/>
+          <a:ext cx="368300" cy="749300"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -895,6 +1340,200 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="上矢印 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D195AC79-B4E3-2F4D-301C-5C7F09C1E6C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2006600" y="3302000"/>
+          <a:ext cx="279400" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右矢印 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833559D9-8A8E-2340-BDB3-E828C9FD0EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2882900" y="2832100"/>
+          <a:ext cx="1816100" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="左矢印 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F8956A7-7AA2-1AE2-2E53-A1D03EBCC9FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2908300" y="3086100"/>
+          <a:ext cx="1778000" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1378,7 +2017,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1580,6 +2224,1219 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CF5EBD-E868-184A-8019-2113393E9D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1536700"/>
+          <a:ext cx="9080500" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>kyoupuroRecordApp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EFB33C7-E327-2D45-9606-73E0B8DD552E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6883400"/>
+          <a:ext cx="9080500" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共通フッター</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE145B47-E913-CD4C-B600-BCADA933256E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="1638300"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3251200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3594100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4809AB10-6DCA-2243-9B1B-B2E3EDDB715E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7594600" y="1689100"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3644900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4699000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8D8E83-2AE5-3627-0714-F0FD4F81F3DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7988300" y="1752600"/>
+          <a:ext cx="1054100" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>userName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3568700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4622800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2748C0B1-9794-18EF-E096-34CCA088ABDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7912100" y="2019300"/>
+          <a:ext cx="1054100" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B997CB0-2FC8-A94F-AA15-B15DB8E8001E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="5943600"/>
+          <a:ext cx="9080500" cy="1739900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD00D18-01AF-2A47-8AA1-B561ACD311F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1536700"/>
+          <a:ext cx="9080500" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>共通ヘッダー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F0F085-FDC1-AD4A-9FCA-95EC7FC9BB0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3975100" y="5981700"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1813CAC5-E392-E973-82FD-B7553DC02AEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="469900" y="6184900"/>
+          <a:ext cx="1117600" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9525AAE-4702-4447-8DAB-EF2F1690C97D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="6223000"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7522245-449D-630B-1E33-3EBB2E5A8B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2527300" y="5956300"/>
+          <a:ext cx="2832100" cy="1739900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>運営者のリンク集　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AtCoder</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アカウント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GitHub</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アカウント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ブログ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E45A5B9-B4FD-7341-A3FA-87D9F102111A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4368800" y="6578600"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8AB8265-2996-0948-A4D7-B3E947AA8C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4368800" y="6235700"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1244600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C825170-5DF6-1A4B-9D47-0437A63F6EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="6858000"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1887,6 +3744,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1955,6 +3817,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2022,7 +3889,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2053,7 +3922,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>ログイン</a:t>
@@ -2397,6 +4266,900 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BAE0D7-3BA2-ED43-A609-C2805E5F72E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="4114800"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19170AA-49E6-3943-9DC3-48E251563B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1562100"/>
+          <a:ext cx="9080500" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共通ヘッダー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571E0261-F9B8-E94B-857B-114E386AB437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6883400"/>
+          <a:ext cx="9080500" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共通フッター</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2070100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F419D39-EAFE-B14B-B665-E9E3435621AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="3657600"/>
+          <a:ext cx="2108200" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27807604-32B6-834D-A40F-A260F8AEE9AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="4457700"/>
+          <a:ext cx="2070100" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B5672B-79FF-844B-9168-7B5EF36D1900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654300" y="3683000"/>
+          <a:ext cx="1219200" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザー名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC9543F-BC24-2442-A610-5FD8EAC389A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2679700" y="4432300"/>
+          <a:ext cx="1206500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D078262-FDAD-9041-A5FA-F9C4422D0489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3632200" y="5207000"/>
+          <a:ext cx="863600" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24261809-7FF8-2342-911C-14A51B480D07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="3352800"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A1025D-5136-A148-8AC2-8E5D88FFE332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="4114800"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1193800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1536700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C749F5A7-E394-6B48-8D51-1B464F8497B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="4864100"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1ACF594-C23E-2B49-8AFB-FCBEEE9BA37E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="3314700"/>
+          <a:ext cx="342900" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96255A3D-25C2-C74A-A441-E61EFE707B0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +5587,7 @@
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -2834,7 +5597,7 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>45109</v>
       </c>
     </row>
@@ -2842,7 +5605,7 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>45111</v>
       </c>
     </row>
@@ -2852,129 +5615,120 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A38346A-E57E-E740-8DF6-DE6B4F4D3CB4}">
-  <dimension ref="B3:D6"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9ED98F-4ECF-BC4E-B5F9-B0CB62F95B61}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="4" max="4" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="28">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337E3A6E-5A1F-DC48-B731-4E248799E8EB}">
-  <dimension ref="B2:G13"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="F2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="6" spans="2:7">
+        <v>41</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="F12:G13"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="F2:G3"/>
@@ -2986,12 +5740,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D1C9D-74CB-1540-A200-08D979518438}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3005,11 +5759,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -3017,12 +5771,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -3030,148 +5784,148 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
@@ -3180,16 +5934,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3197,13 +5951,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3211,13 +5965,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3225,13 +5979,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3239,20 +5993,14 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
@@ -3261,16 +6009,16 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="89" customHeight="1">
@@ -3278,13 +6026,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="89" customHeight="1">
@@ -3292,13 +6040,294 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="A10:D30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B28758D-53E7-A748-B0EB-4D576658E180}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>53</v>
+      <c r="D36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="89" customHeight="1">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3316,11 +6345,362 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444F6F03-A81D-A04A-9EAD-EEA4FF54E757}">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28" customHeight="1">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="A10:D30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1320CDBD-4C48-9E4B-97CB-C71AE4F94A2C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3334,11 +6714,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -3346,12 +6726,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -3359,148 +6739,148 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
@@ -3509,16 +6889,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3526,27 +6906,27 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="42">
       <c r="A37" s="1">
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3554,27 +6934,27 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="42">
       <c r="A39" s="1">
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3582,20 +6962,14 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
@@ -3604,16 +6978,16 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="78" customHeight="1">
@@ -3621,13 +6995,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="78" customHeight="1">
@@ -3635,13 +7009,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="78" customHeight="1">
@@ -3649,13 +7023,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3671,25 +7045,362 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAC0DF3-FA9D-7547-9932-840D0E39EFA8}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D039BF3-10E6-E24D-A928-C9758D91BC79}">
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="42">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="42">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="78" customHeight="1">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="78" customHeight="1">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="78" customHeight="1">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="A10:D30"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E562364-B549-9B4A-B243-6F638596BE78}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3701,11 +7412,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -3713,9 +7424,9 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -3747,24 +7458,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19008C-5606-7B40-98FC-DD44CBC54661}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83846B86-8B28-2F47-99C1-4D2AF757AD97}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BD4116-EB71-9C43-8831-AD04127B0588}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData/>

--- a/document/screenDesignDocument.xlsx
+++ b/document/screenDesignDocument.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osumi/kyopuroRecordApp/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDBCD09-4511-3945-BAB3-C91607356A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4828AEBA-0D8C-134C-A586-5506BF7DB36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4960" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{79A594DB-89F1-7841-9244-7F6B74B2A7C0}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" xr2:uid="{79A594DB-89F1-7841-9244-7F6B74B2A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="4" r:id="rId1"/>
@@ -1722,7 +1722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1746,6 +1746,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1780,81 +1825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,8 +1834,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13145,7 +13115,7 @@
   <dimension ref="B7:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13223,11 +13193,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -13235,12 +13205,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -13248,196 +13218,196 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
@@ -13552,7 +13522,7 @@
       <c r="C50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="22" t="s">
         <v>152</v>
       </c>
     </row>
@@ -13594,7 +13564,7 @@
       <c r="C53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="22" t="s">
         <v>154</v>
       </c>
     </row>
@@ -13622,7 +13592,7 @@
       <c r="C55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="22" t="s">
         <v>155</v>
       </c>
     </row>
@@ -13641,13 +13611,13 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="26">
+      <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -13784,23 +13754,23 @@
       <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
@@ -13808,14 +13778,14 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="E8" t="s">
         <v>13</v>
       </c>
@@ -13829,20 +13799,20 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="23"/>
+      <c r="F12" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
@@ -13858,14 +13828,14 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13886,7 +13856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D1C9D-74CB-1540-A200-08D979518438}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -13901,11 +13871,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -13913,12 +13883,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -13926,148 +13896,148 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
@@ -14224,11 +14194,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -14236,12 +14206,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -14249,148 +14219,148 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
@@ -14505,11 +14475,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -14517,12 +14487,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -14530,148 +14500,148 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
@@ -14841,7 +14811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1320CDBD-4C48-9E4B-97CB-C71AE4F94A2C}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:D30"/>
     </sheetView>
   </sheetViews>
@@ -14856,11 +14826,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -14868,12 +14838,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -14881,148 +14851,148 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
@@ -15191,8 +15161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D039BF3-10E6-E24D-A928-C9758D91BC79}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -15206,11 +15176,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -15218,12 +15188,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -15231,148 +15201,148 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
@@ -15542,7 +15512,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -15560,13 +15530,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -15574,14 +15544,14 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -15589,356 +15559,224 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="14"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="14"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="21"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="33"/>
+      <c r="A11" s="10"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="21"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="33"/>
+      <c r="A12" s="10"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="21"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="33"/>
+      <c r="A13" s="10"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="33"/>
+      <c r="A14" s="10"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="21"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="33"/>
+      <c r="A15" s="10"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="21"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="33"/>
+      <c r="A16" s="10"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="21"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
+      <c r="A17" s="10"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="42"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="17">
         <v>43909</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="33"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="17">
         <v>44947</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="33"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="19">
         <v>43932</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="33"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="19">
         <v>44823</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="33"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="21"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="33"/>
+      <c r="A23" s="10"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="21"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="33"/>
+      <c r="A24" s="10"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="21"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="33"/>
+      <c r="A25" s="10"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="21"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="33"/>
+      <c r="A26" s="10"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="21"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="33"/>
+      <c r="A27" s="10"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="21"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="21"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
@@ -15946,355 +15784,246 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="14"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="14"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="21"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="33"/>
+      <c r="A40" s="10"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="21"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="33"/>
+      <c r="A41" s="10"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="21"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="33"/>
+      <c r="A42" s="10"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="21"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="33"/>
+      <c r="A43" s="10"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="21"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="33"/>
+      <c r="A44" s="10"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="21"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="33"/>
+      <c r="A45" s="10"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="21"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="33"/>
+      <c r="A46" s="10"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="32"/>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="42"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="32"/>
       <c r="B48" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="17">
         <v>43909</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="33"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="32"/>
       <c r="B49" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="17">
         <v>44947</v>
       </c>
-      <c r="H49" s="37" t="s">
+      <c r="H49" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="40"/>
-      <c r="J49" s="33"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="32"/>
       <c r="B50" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="39">
+      <c r="G50" s="19">
         <v>43932</v>
       </c>
-      <c r="H50" s="39" t="s">
+      <c r="H50" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I50" s="41"/>
-      <c r="J50" s="33"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="32"/>
       <c r="B51" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="39">
+      <c r="G51" s="19">
         <v>44823</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H51" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I51" s="41"/>
-      <c r="J51" s="33"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="14"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="21"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="J52" s="33"/>
+      <c r="A52" s="10"/>
+      <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="21"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="J53" s="33"/>
+      <c r="A53" s="10"/>
+      <c r="J53" s="14"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="21"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="33"/>
+      <c r="A54" s="10"/>
+      <c r="J54" s="14"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="21"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="33"/>
+      <c r="A55" s="10"/>
+      <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="21"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="33"/>
+      <c r="A56" s="10"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="35"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="21"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="21"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -16304,14 +16033,12 @@
       <c r="C68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-    </row>
-    <row r="69" spans="1:7" ht="36" customHeight="1">
+      <c r="E68" s="33"/>
+    </row>
+    <row r="69" spans="1:5" ht="36" customHeight="1">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -16321,14 +16048,12 @@
       <c r="C69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-    </row>
-    <row r="70" spans="1:7" ht="36" customHeight="1">
+      <c r="E69" s="33"/>
+    </row>
+    <row r="70" spans="1:5" ht="36" customHeight="1">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -16338,14 +16063,12 @@
       <c r="C70" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-    </row>
-    <row r="71" spans="1:7" ht="36" customHeight="1">
+      <c r="E70" s="33"/>
+    </row>
+    <row r="71" spans="1:5" ht="36" customHeight="1">
       <c r="A71" s="1">
         <v>3</v>
       </c>
@@ -16355,14 +16078,12 @@
       <c r="C71" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-    </row>
-    <row r="72" spans="1:7" ht="46" customHeight="1">
+      <c r="E71" s="33"/>
+    </row>
+    <row r="72" spans="1:5" ht="46" customHeight="1">
       <c r="A72" s="1">
         <v>4</v>
       </c>
@@ -16372,14 +16093,12 @@
       <c r="C72" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-    </row>
-    <row r="73" spans="1:7" ht="45" customHeight="1">
+      <c r="E72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" ht="45" customHeight="1">
       <c r="A73" s="1">
         <v>5</v>
       </c>
@@ -16389,14 +16108,12 @@
       <c r="C73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="43" t="s">
+      <c r="D73" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-    </row>
-    <row r="74" spans="1:7" ht="45" customHeight="1">
+      <c r="E73" s="33"/>
+    </row>
+    <row r="74" spans="1:5" ht="45" customHeight="1">
       <c r="A74" s="1">
         <v>6</v>
       </c>
@@ -16406,14 +16123,12 @@
       <c r="C74" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-    </row>
-    <row r="75" spans="1:7" ht="45" customHeight="1">
+      <c r="E74" s="33"/>
+    </row>
+    <row r="75" spans="1:5" ht="45" customHeight="1">
       <c r="A75" s="1">
         <v>7</v>
       </c>
@@ -16423,14 +16138,12 @@
       <c r="C75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-    </row>
-    <row r="76" spans="1:7" ht="45" customHeight="1">
+      <c r="E75" s="33"/>
+    </row>
+    <row r="76" spans="1:5" ht="45" customHeight="1">
       <c r="A76" s="1">
         <v>8</v>
       </c>
@@ -16440,14 +16153,12 @@
       <c r="C76" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="43" t="s">
+      <c r="D76" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-    </row>
-    <row r="77" spans="1:7" ht="45" customHeight="1">
+      <c r="E76" s="33"/>
+    </row>
+    <row r="77" spans="1:5" ht="45" customHeight="1">
       <c r="A77" s="1">
         <v>9</v>
       </c>
@@ -16457,44 +16168,40 @@
       <c r="C77" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-    </row>
-    <row r="78" spans="1:7" ht="36" customHeight="1">
-      <c r="A78" s="26">
+      <c r="E77" s="33"/>
+    </row>
+    <row r="78" spans="1:5" ht="36" customHeight="1">
+      <c r="A78" s="1">
         <v>10</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="28"/>
-    </row>
-    <row r="79" spans="1:7" ht="36" customHeight="1">
-      <c r="A79" s="26">
+      <c r="E78" s="33"/>
+    </row>
+    <row r="79" spans="1:5" ht="36" customHeight="1">
+      <c r="A79" s="1">
         <v>11</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="28"/>
+      <c r="E79" s="33"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
@@ -16511,11 +16218,11 @@
       <c r="C83" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="11"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="26"/>
     </row>
     <row r="84" spans="1:6" ht="78" customHeight="1">
       <c r="A84" s="1">
@@ -16527,11 +16234,11 @@
       <c r="C84" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="44" t="s">
+      <c r="D84" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E84" s="45"/>
-      <c r="F84" s="46"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="36"/>
     </row>
     <row r="85" spans="1:6" ht="78" customHeight="1">
       <c r="A85" s="1">
@@ -16543,11 +16250,11 @@
       <c r="C85" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="44" t="s">
+      <c r="D85" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="45"/>
-      <c r="F85" s="46"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="36"/>
     </row>
     <row r="86" spans="1:6" ht="78" customHeight="1">
       <c r="A86" s="1">
@@ -16559,46 +16266,52 @@
       <c r="C86" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D86" s="44" t="s">
+      <c r="D86" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E86" s="45"/>
-      <c r="F86" s="46"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="36"/>
     </row>
     <row r="87" spans="1:6" ht="48" customHeight="1">
       <c r="A87" s="1">
         <v>10</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E87" s="45"/>
-      <c r="F87" s="46"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="36"/>
     </row>
     <row r="88" spans="1:6" ht="48" customHeight="1">
       <c r="A88" s="1">
         <v>11</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="D88" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E88" s="45"/>
-      <c r="F88" s="46"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A7:F9"/>
     <mergeCell ref="A36:F38"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="D79:E79"/>
@@ -16615,12 +16328,6 @@
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A7:F9"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -16653,11 +16360,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -16665,12 +16372,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -16678,196 +16385,196 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
@@ -16982,7 +16689,7 @@
       <c r="C50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="22" t="s">
         <v>152</v>
       </c>
     </row>
@@ -17024,7 +16731,7 @@
       <c r="C53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="22" t="s">
         <v>154</v>
       </c>
     </row>
@@ -17052,7 +16759,7 @@
       <c r="C55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="22" t="s">
         <v>155</v>
       </c>
     </row>
@@ -17071,13 +16778,13 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="26">
+      <c r="A57" s="1">
         <v>14</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="1" t="s">

--- a/document/screenDesignDocument.xlsx
+++ b/document/screenDesignDocument.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osumi/kyopuroRecordApp/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4828AEBA-0D8C-134C-A586-5506BF7DB36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37BE6AA-22A8-314F-8691-1AB82EA428F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" xr2:uid="{79A594DB-89F1-7841-9244-7F6B74B2A7C0}"/>
+    <workbookView xWindow="-4960" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{79A594DB-89F1-7841-9244-7F6B74B2A7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="精進記録新規登録画面" sheetId="17" r:id="rId9"/>
     <sheet name="精進記録編集画面" sheetId="18" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">画面設計!$B$8</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1825,6 +1828,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1832,9 +1838,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13112,65 +13115,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD139898-D56E-AE4F-8048-1EF993F828F9}">
-  <dimension ref="B7:C14"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:3" ht="30">
-      <c r="B7" s="2" t="s">
+    <row r="1" spans="1:2" ht="30">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="4" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="4" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="B7" s="5">
         <v>45109</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="4" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5">
+      <c r="B8" s="5">
         <v>45111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -13736,6 +13740,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -13848,6 +13853,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -15153,6 +15159,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -15503,6 +15510,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -16093,7 +16101,7 @@
       <c r="C72" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="34" t="s">
         <v>113</v>
       </c>
       <c r="E72" s="33"/>
@@ -16108,7 +16116,7 @@
       <c r="C73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="34" t="s">
         <v>114</v>
       </c>
       <c r="E73" s="33"/>
@@ -16123,7 +16131,7 @@
       <c r="C74" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="34" t="s">
         <v>115</v>
       </c>
       <c r="E74" s="33"/>
@@ -16138,7 +16146,7 @@
       <c r="C75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="34" t="s">
         <v>116</v>
       </c>
       <c r="E75" s="33"/>
@@ -16153,7 +16161,7 @@
       <c r="C76" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="37" t="s">
+      <c r="D76" s="34" t="s">
         <v>117</v>
       </c>
       <c r="E76" s="33"/>
@@ -16168,7 +16176,7 @@
       <c r="C77" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="37" t="s">
+      <c r="D77" s="34" t="s">
         <v>118</v>
       </c>
       <c r="E77" s="33"/>
@@ -16234,11 +16242,11 @@
       <c r="C84" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D84" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="E84" s="35"/>
-      <c r="F84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="37"/>
     </row>
     <row r="85" spans="1:6" ht="78" customHeight="1">
       <c r="A85" s="1">
@@ -16250,11 +16258,11 @@
       <c r="C85" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="D85" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="35"/>
-      <c r="F85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="37"/>
     </row>
     <row r="86" spans="1:6" ht="78" customHeight="1">
       <c r="A86" s="1">
@@ -16266,11 +16274,11 @@
       <c r="C86" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D86" s="34" t="s">
+      <c r="D86" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E86" s="35"/>
-      <c r="F86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="37"/>
     </row>
     <row r="87" spans="1:6" ht="48" customHeight="1">
       <c r="A87" s="1">
@@ -16282,11 +16290,11 @@
       <c r="C87" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D87" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E87" s="35"/>
-      <c r="F87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="37"/>
     </row>
     <row r="88" spans="1:6" ht="48" customHeight="1">
       <c r="A88" s="1">
@@ -16298,21 +16306,14 @@
       <c r="C88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="34" t="s">
+      <c r="D88" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E88" s="35"/>
-      <c r="F88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A7:F9"/>
-    <mergeCell ref="A36:F38"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D87:F87"/>
@@ -16323,6 +16324,13 @@
     <mergeCell ref="D84:F84"/>
     <mergeCell ref="D85:F85"/>
     <mergeCell ref="D86:F86"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A7:F9"/>
+    <mergeCell ref="A36:F38"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="D70:E70"/>
@@ -16337,6 +16345,7 @@
     <hyperlink ref="E49:E51" r:id="rId4" display="https://aaaaaaaaaaaa" xr:uid="{B2766590-068C-6547-B682-F0C820D9779E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId5"/>
 </worksheet>
 </file>
@@ -16903,6 +16912,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>